--- a/composition_data_processed.xlsx
+++ b/composition_data_processed.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -60,6 +60,786 @@
   </si>
   <si>
     <t xml:space="preserve">4-ethyl-5-methylamino-pyrocatechol sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-methylpyridine-2-carboxylic acid glycine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-hydroxy-3-(methyl-sulphinyl)propanoic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red cabbage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-hydroxyhippuric acid sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-hydroxyhippuric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iberin n-acetyl-cysteine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabbage-family vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n-acetyl-s-(n-3-methylthiopropyl)cysteine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n-acetyl-s-(n-allylthiocarbamoyl)cysteine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sulforaphane n-acetyl-cysteine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-hydroxyindole-3-acetic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walnut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-ammu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chocolate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theobromine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-methyluric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma-glutamylglutamic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar-rich foods and beverages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma-glutamylisoleucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma-glutamylleucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma-glutamylthreonine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma-glutamyltyrosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glyceric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits + Vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quinic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paraxanthine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aamu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,7-dimethyluric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-methyluric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-methylxanthine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caffeine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3,7-trimethyluric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">osbond acid (cis-22:5n-6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epa (cis-20:5n-3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish and shellfish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dha (cis-22:6n-3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmpf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit juices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n-methylproline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">threonic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scyllo-inositol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptophan betaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limonene 8,9-diol glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nootkatone 13,14-diol glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hesperetin 3'-glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-hydroxyproline betaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n-methyltyramine sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naringenin 7-glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hhpaa sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whole grain rye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,5-dhppa sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caffeic acid sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hpaa sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pimelic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hhpaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indole-3-carboxylic acid glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydroxyindole acetic acid sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n-acetylserotonin sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-hydroxy-decene-4,6-diynoic acid sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urolithin a glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urolithin a sulfoglucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tridecadienoic/tridecynoic acid glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urolithin b 3-glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urolithin a sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combined biomarker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dihydroferulic acid sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guaiacol glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feruloylquinic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferulic acid sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feruloylquinic acid glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-caffeoylquinic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-coumaric acid sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferulic acid glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydroxyhippuric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dihydrocaffeic acid sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m-coumaric acid sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dihydroferulic acid glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-hydroxyphenyllactic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guaiacol sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ethylcatechol glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gallic acid ethyl ester sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydroxytyrosol sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dihydroresveratrol glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">syringic acid sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naringenin glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hesperetin glucuronide sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methylgallic acid sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-o-methylgallic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dihydroxyphenyl-gamma-valerolactone sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyrogallol sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydroxyphenylvaleric acid glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methyl(epi)catechin sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pome fruits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phloretin glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-hydroxy-(3',4'-dihydroxyphenyl)valeric acid sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dihydroxyphenyl-gamma-valerolactone glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanillic acid sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trigonelline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n-(2-furoyl)glycine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catechol sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theophylline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyclo(leucyl-prolyl)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-vinylphenol sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-hydroxyphenylpropionic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cinnamoylglycine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chiro-inositol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green-yellow vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-docosahexaenoylglycerophosphocholine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shellfish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methyl palmitic acid isomer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pentadecylic acid (15:0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-undecenoic acid (11:1n1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ethyl glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcoholic beverages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atractyligenin glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyclo(isoleucyl-prolyl)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kahweol oxide glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dimethylxanthine glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afmu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hippuric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pantothenic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamin supplements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-pyridoxic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-tocopherol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatty fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-n-nonadecylresorcinol (c19:0) glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whole grain cereals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-n-(16-heneicosenyl)-resorcinol (c21:1) glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anserine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methylhistidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trimethylamine n-oxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caffeoyl sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ascorbic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broccoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n-methylglutamic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onion-family vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processed meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xylitol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-dehydrocarnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">threitol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indolepropionic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-phenylpropionic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avocado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-hydroxyproline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myristic acid (14:0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cis-10-nonadecenoic acid (19:1n9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lysine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ciliatine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-hydroxybutyric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-methylxanthine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creatine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fats and oils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n-acetyltyrosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salad dressing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cereals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n-acetylglutamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ergothioneine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mushrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpa (cis-22:5n-3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seafood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poultry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-ethylphenyl sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soy milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-androsten-3beta,17beta-diol disulfate 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riboflavin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-hydroxyisovaleric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5alpha-androstan-3beta,17beta-diol disulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pipecolic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myo-inositol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-aminobutyric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capric acid (10:0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piperine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-methyl-2-oxovaleric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta-hydroxyisovaleric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caprylic acid (8:0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">benzoic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearidonic acid (cis-18:4n-3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-methyl-2-oxobutyric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epiandrosterone sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arachidonic acid (aa; cis-20:4n-6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-cehc glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-cehc sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lysophosphatidylcholine c17:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydroxysphingomyelin c14:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lysophosphatidylcholine c28:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphatidylcholine diacyl c40:6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphatidylcholine diacyl c38:6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">octenoylcarnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refined bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphatidylcholine diacyl c36:5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphatidylcholine diacyl c32:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3-dimethyluric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicotinic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-methylglutarylcarnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar-sweetened beverages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3-dihydroxyisovaleric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tartaric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mannitol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ethanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-methyl-2-oxovaleric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-hydroxyphenylacetic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-isopropylmalic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicotine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">citrulline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isocitric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taurine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-aminophenol sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hpaa glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hmboa glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hmboa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,5-dhppa glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydroxybenzoic acid glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whole-grain bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hpaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,5-dihydroxyphenylethanol sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,5-dhppta sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enterolactone glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyrraline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,8-dihydroxyquinoline glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-hydroxypalmitic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eicosadienoic acid (cis-20:2n-6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palmitoleic acid (cis-16:1n-7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bilirubin (e,z or z,e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-iminopentylisothiocyanate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erucin n-acetyl-cysteine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sulforaphane n-cysteine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n-acetyl-(n'-benzylthiocarbamoyl)-cysteine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pipecolic acid betaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-hydroxyproline betaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proline betaine glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proline betaine sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carnosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish + Meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">propionylcarnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-methylbutyrylcarnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guanidineacetic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">syringol sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-methylsyringol sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-ethylsyringol sulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-allylsyringol sulfate</t>
   </si>
 </sst>
 </file>
@@ -512,6 +1292,4461 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>82</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>94</v>
+      </c>
+      <c r="B89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>95</v>
+      </c>
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>96</v>
+      </c>
+      <c r="B91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>97</v>
+      </c>
+      <c r="B92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>98</v>
+      </c>
+      <c r="B93" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>99</v>
+      </c>
+      <c r="B94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>100</v>
+      </c>
+      <c r="B95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>101</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>103</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>104</v>
+      </c>
+      <c r="B99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>105</v>
+      </c>
+      <c r="B100" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>107</v>
+      </c>
+      <c r="B102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>108</v>
+      </c>
+      <c r="B103" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>109</v>
+      </c>
+      <c r="B104" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>110</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>111</v>
+      </c>
+      <c r="B106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>112</v>
+      </c>
+      <c r="B107" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>113</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>114</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>115</v>
+      </c>
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>116</v>
+      </c>
+      <c r="B111" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>117</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>122</v>
+      </c>
+      <c r="B113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>123</v>
+      </c>
+      <c r="B114" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>124</v>
+      </c>
+      <c r="B115" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>125</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>126</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>47</v>
+      </c>
+      <c r="C118" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>46</v>
+      </c>
+      <c r="C119" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>129</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>130</v>
+      </c>
+      <c r="B121" t="s">
+        <v>48</v>
+      </c>
+      <c r="C121" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>131</v>
+      </c>
+      <c r="B122" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>132</v>
+      </c>
+      <c r="B123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>133</v>
+      </c>
+      <c r="B124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>134</v>
+      </c>
+      <c r="B125" t="s">
+        <v>45</v>
+      </c>
+      <c r="C125" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>135</v>
+      </c>
+      <c r="B126" t="s">
+        <v>122</v>
+      </c>
+      <c r="C126" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>136</v>
+      </c>
+      <c r="B127" t="s">
+        <v>123</v>
+      </c>
+      <c r="C127" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>137</v>
+      </c>
+      <c r="B128" t="s">
+        <v>124</v>
+      </c>
+      <c r="C128" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>138</v>
+      </c>
+      <c r="B129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C129" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>139</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>140</v>
+      </c>
+      <c r="B131" t="s">
+        <v>58</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>141</v>
+      </c>
+      <c r="B132" t="s">
+        <v>126</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>142</v>
+      </c>
+      <c r="B133" t="s">
+        <v>56</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>143</v>
+      </c>
+      <c r="B134" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>144</v>
+      </c>
+      <c r="B135" t="s">
+        <v>54</v>
+      </c>
+      <c r="C135" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>145</v>
+      </c>
+      <c r="B136" t="s">
+        <v>53</v>
+      </c>
+      <c r="C136" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>146</v>
+      </c>
+      <c r="B137" t="s">
+        <v>51</v>
+      </c>
+      <c r="C137" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>147</v>
+      </c>
+      <c r="B138" t="s">
+        <v>129</v>
+      </c>
+      <c r="C138" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>148</v>
+      </c>
+      <c r="B139" t="s">
+        <v>54</v>
+      </c>
+      <c r="C139" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>149</v>
+      </c>
+      <c r="B140" t="s">
+        <v>131</v>
+      </c>
+      <c r="C140" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>150</v>
+      </c>
+      <c r="B141" t="s">
+        <v>133</v>
+      </c>
+      <c r="C141" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>151</v>
+      </c>
+      <c r="B142" t="s">
+        <v>134</v>
+      </c>
+      <c r="C142" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>152</v>
+      </c>
+      <c r="B143" t="s">
+        <v>59</v>
+      </c>
+      <c r="C143" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>153</v>
+      </c>
+      <c r="B144" t="s">
+        <v>123</v>
+      </c>
+      <c r="C144" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>154</v>
+      </c>
+      <c r="B145" t="s">
+        <v>118</v>
+      </c>
+      <c r="C145" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>155</v>
+      </c>
+      <c r="B146" t="s">
+        <v>40</v>
+      </c>
+      <c r="C146" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>156</v>
+      </c>
+      <c r="B147" t="s">
+        <v>46</v>
+      </c>
+      <c r="C147" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>157</v>
+      </c>
+      <c r="B148" t="s">
+        <v>42</v>
+      </c>
+      <c r="C148" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>158</v>
+      </c>
+      <c r="B149" t="s">
+        <v>119</v>
+      </c>
+      <c r="C149" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>159</v>
+      </c>
+      <c r="B150" t="s">
+        <v>120</v>
+      </c>
+      <c r="C150" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>160</v>
+      </c>
+      <c r="B151" t="s">
+        <v>135</v>
+      </c>
+      <c r="C151" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>161</v>
+      </c>
+      <c r="B152" t="s">
+        <v>135</v>
+      </c>
+      <c r="C152" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>162</v>
+      </c>
+      <c r="B153" t="s">
+        <v>138</v>
+      </c>
+      <c r="C153" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>163</v>
+      </c>
+      <c r="B154" t="s">
+        <v>139</v>
+      </c>
+      <c r="C154" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>164</v>
+      </c>
+      <c r="B155" t="s">
+        <v>46</v>
+      </c>
+      <c r="C155" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>165</v>
+      </c>
+      <c r="B156" t="s">
+        <v>44</v>
+      </c>
+      <c r="C156" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>166</v>
+      </c>
+      <c r="B157" t="s">
+        <v>140</v>
+      </c>
+      <c r="C157" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>167</v>
+      </c>
+      <c r="B158" t="s">
+        <v>45</v>
+      </c>
+      <c r="C158" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>168</v>
+      </c>
+      <c r="B159" t="s">
+        <v>118</v>
+      </c>
+      <c r="C159" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>169</v>
+      </c>
+      <c r="B160" t="s">
+        <v>141</v>
+      </c>
+      <c r="C160" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>170</v>
+      </c>
+      <c r="B161" t="s">
+        <v>142</v>
+      </c>
+      <c r="C161" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>172</v>
+      </c>
+      <c r="B162" t="s">
+        <v>143</v>
+      </c>
+      <c r="C162" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>173</v>
+      </c>
+      <c r="B163" t="s">
+        <v>48</v>
+      </c>
+      <c r="C163" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>174</v>
+      </c>
+      <c r="B164" t="s">
+        <v>42</v>
+      </c>
+      <c r="C164" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>175</v>
+      </c>
+      <c r="B165" t="s">
+        <v>144</v>
+      </c>
+      <c r="C165" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>176</v>
+      </c>
+      <c r="B166" t="s">
+        <v>146</v>
+      </c>
+      <c r="C166" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>177</v>
+      </c>
+      <c r="B167" t="s">
+        <v>147</v>
+      </c>
+      <c r="C167" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>178</v>
+      </c>
+      <c r="B168" t="s">
+        <v>57</v>
+      </c>
+      <c r="C168" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>179</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>180</v>
+      </c>
+      <c r="B170" t="s">
+        <v>54</v>
+      </c>
+      <c r="C170" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>181</v>
+      </c>
+      <c r="B171" t="s">
+        <v>143</v>
+      </c>
+      <c r="C171" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>182</v>
+      </c>
+      <c r="B172" t="s">
+        <v>150</v>
+      </c>
+      <c r="C172" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>183</v>
+      </c>
+      <c r="B173" t="s">
+        <v>152</v>
+      </c>
+      <c r="C173" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>184</v>
+      </c>
+      <c r="B174" t="s">
+        <v>153</v>
+      </c>
+      <c r="C174" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>185</v>
+      </c>
+      <c r="B175" t="s">
+        <v>154</v>
+      </c>
+      <c r="C175" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>186</v>
+      </c>
+      <c r="B176" t="s">
+        <v>155</v>
+      </c>
+      <c r="C176" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>187</v>
+      </c>
+      <c r="B177" t="s">
+        <v>156</v>
+      </c>
+      <c r="C177" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>188</v>
+      </c>
+      <c r="B178" t="s">
+        <v>157</v>
+      </c>
+      <c r="C178" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>189</v>
+      </c>
+      <c r="B179" t="s">
+        <v>112</v>
+      </c>
+      <c r="C179" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>190</v>
+      </c>
+      <c r="B180" t="s">
+        <v>92</v>
+      </c>
+      <c r="C180" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>191</v>
+      </c>
+      <c r="B181" t="s">
+        <v>104</v>
+      </c>
+      <c r="C181" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>192</v>
+      </c>
+      <c r="B182" t="s">
+        <v>157</v>
+      </c>
+      <c r="C182" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>193</v>
+      </c>
+      <c r="B183" t="s">
+        <v>104</v>
+      </c>
+      <c r="C183" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>194</v>
+      </c>
+      <c r="B184" t="s">
+        <v>58</v>
+      </c>
+      <c r="C184" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>195</v>
+      </c>
+      <c r="B185" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>196</v>
+      </c>
+      <c r="B186" t="s">
+        <v>159</v>
+      </c>
+      <c r="C186" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>197</v>
+      </c>
+      <c r="B187" t="s">
+        <v>126</v>
+      </c>
+      <c r="C187" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>198</v>
+      </c>
+      <c r="B188" t="s">
+        <v>64</v>
+      </c>
+      <c r="C188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>199</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>200</v>
+      </c>
+      <c r="B190" t="s">
+        <v>58</v>
+      </c>
+      <c r="C190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>201</v>
+      </c>
+      <c r="B191" t="s">
+        <v>56</v>
+      </c>
+      <c r="C191" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>202</v>
+      </c>
+      <c r="B192" t="s">
+        <v>126</v>
+      </c>
+      <c r="C192" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>203</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>204</v>
+      </c>
+      <c r="B194" t="s">
+        <v>58</v>
+      </c>
+      <c r="C194" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>205</v>
+      </c>
+      <c r="B195" t="s">
+        <v>56</v>
+      </c>
+      <c r="C195" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>206</v>
+      </c>
+      <c r="B196" t="s">
+        <v>159</v>
+      </c>
+      <c r="C196" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>207</v>
+      </c>
+      <c r="B197" t="s">
+        <v>64</v>
+      </c>
+      <c r="C197" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>208</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>209</v>
+      </c>
+      <c r="B199" t="s">
+        <v>58</v>
+      </c>
+      <c r="C199" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>210</v>
+      </c>
+      <c r="B200" t="s">
+        <v>56</v>
+      </c>
+      <c r="C200" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>211</v>
+      </c>
+      <c r="B201" t="s">
+        <v>126</v>
+      </c>
+      <c r="C201" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>212</v>
+      </c>
+      <c r="B202" t="s">
+        <v>59</v>
+      </c>
+      <c r="C202" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>213</v>
+      </c>
+      <c r="B203" t="s">
+        <v>54</v>
+      </c>
+      <c r="C203" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>214</v>
+      </c>
+      <c r="B204" t="s">
+        <v>54</v>
+      </c>
+      <c r="C204" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>215</v>
+      </c>
+      <c r="B205" t="s">
+        <v>53</v>
+      </c>
+      <c r="C205" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>216</v>
+      </c>
+      <c r="B206" t="s">
+        <v>59</v>
+      </c>
+      <c r="C206" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>217</v>
+      </c>
+      <c r="B207" t="s">
+        <v>59</v>
+      </c>
+      <c r="C207" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>218</v>
+      </c>
+      <c r="B208" t="s">
+        <v>123</v>
+      </c>
+      <c r="C208" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>219</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>220</v>
+      </c>
+      <c r="B210" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>221</v>
+      </c>
+      <c r="B211" t="s">
+        <v>162</v>
+      </c>
+      <c r="C211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>222</v>
+      </c>
+      <c r="B212" t="s">
+        <v>163</v>
+      </c>
+      <c r="C212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>223</v>
+      </c>
+      <c r="B213" t="s">
+        <v>135</v>
+      </c>
+      <c r="C213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>224</v>
+      </c>
+      <c r="B214" t="s">
+        <v>164</v>
+      </c>
+      <c r="C214" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>225</v>
+      </c>
+      <c r="B215" t="s">
+        <v>166</v>
+      </c>
+      <c r="C215" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>226</v>
+      </c>
+      <c r="B216" t="s">
+        <v>167</v>
+      </c>
+      <c r="C216" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>227</v>
+      </c>
+      <c r="B217" t="s">
+        <v>54</v>
+      </c>
+      <c r="C217" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>228</v>
+      </c>
+      <c r="B218" t="s">
+        <v>129</v>
+      </c>
+      <c r="C218" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>229</v>
+      </c>
+      <c r="B219" t="s">
+        <v>51</v>
+      </c>
+      <c r="C219" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>230</v>
+      </c>
+      <c r="B220" t="s">
+        <v>166</v>
+      </c>
+      <c r="C220" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>231</v>
+      </c>
+      <c r="B221" t="s">
+        <v>54</v>
+      </c>
+      <c r="C221" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>232</v>
+      </c>
+      <c r="B222" t="s">
+        <v>170</v>
+      </c>
+      <c r="C222" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>233</v>
+      </c>
+      <c r="B223" t="s">
+        <v>131</v>
+      </c>
+      <c r="C223" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>234</v>
+      </c>
+      <c r="B224" t="s">
+        <v>134</v>
+      </c>
+      <c r="C224" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>235</v>
+      </c>
+      <c r="B225" t="s">
+        <v>172</v>
+      </c>
+      <c r="C225" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>236</v>
+      </c>
+      <c r="B226" t="s">
+        <v>173</v>
+      </c>
+      <c r="C226" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>237</v>
+      </c>
+      <c r="B227" t="s">
+        <v>133</v>
+      </c>
+      <c r="C227" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>238</v>
+      </c>
+      <c r="B228" t="s">
+        <v>54</v>
+      </c>
+      <c r="C228" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>239</v>
+      </c>
+      <c r="B229" t="s">
+        <v>174</v>
+      </c>
+      <c r="C229" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>240</v>
+      </c>
+      <c r="B230" t="s">
+        <v>175</v>
+      </c>
+      <c r="C230" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>241</v>
+      </c>
+      <c r="B231" t="s">
+        <v>176</v>
+      </c>
+      <c r="C231" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>242</v>
+      </c>
+      <c r="B232" t="s">
+        <v>30</v>
+      </c>
+      <c r="C232" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>243</v>
+      </c>
+      <c r="B233" t="s">
+        <v>177</v>
+      </c>
+      <c r="C233" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>244</v>
+      </c>
+      <c r="B234" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>245</v>
+      </c>
+      <c r="B235" t="s">
+        <v>38</v>
+      </c>
+      <c r="C235" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>246</v>
+      </c>
+      <c r="B236" t="s">
+        <v>40</v>
+      </c>
+      <c r="C236" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>247</v>
+      </c>
+      <c r="B237" t="s">
+        <v>120</v>
+      </c>
+      <c r="C237" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>248</v>
+      </c>
+      <c r="B238" t="s">
+        <v>122</v>
+      </c>
+      <c r="C238" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>249</v>
+      </c>
+      <c r="B239" t="s">
+        <v>46</v>
+      </c>
+      <c r="C239" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>250</v>
+      </c>
+      <c r="B240" t="s">
+        <v>178</v>
+      </c>
+      <c r="C240" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>251</v>
+      </c>
+      <c r="B241" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>252</v>
+      </c>
+      <c r="B242" t="s">
+        <v>54</v>
+      </c>
+      <c r="C242" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>253</v>
+      </c>
+      <c r="B243" t="s">
+        <v>129</v>
+      </c>
+      <c r="C243" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>254</v>
+      </c>
+      <c r="B244" t="s">
+        <v>180</v>
+      </c>
+      <c r="C244" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>255</v>
+      </c>
+      <c r="B245" t="s">
+        <v>51</v>
+      </c>
+      <c r="C245" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>256</v>
+      </c>
+      <c r="B246" t="s">
+        <v>146</v>
+      </c>
+      <c r="C246" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>257</v>
+      </c>
+      <c r="B247" t="s">
+        <v>183</v>
+      </c>
+      <c r="C247" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>258</v>
+      </c>
+      <c r="B248" t="s">
+        <v>170</v>
+      </c>
+      <c r="C248" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>259</v>
+      </c>
+      <c r="B249" t="s">
+        <v>178</v>
+      </c>
+      <c r="C249" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>261</v>
+      </c>
+      <c r="B250" t="s">
+        <v>144</v>
+      </c>
+      <c r="C250" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>262</v>
+      </c>
+      <c r="B251" t="s">
+        <v>185</v>
+      </c>
+      <c r="C251" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>263</v>
+      </c>
+      <c r="B252" t="s">
+        <v>53</v>
+      </c>
+      <c r="C252" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>264</v>
+      </c>
+      <c r="B253" t="s">
+        <v>54</v>
+      </c>
+      <c r="C253" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>265</v>
+      </c>
+      <c r="B254" t="s">
+        <v>51</v>
+      </c>
+      <c r="C254" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>266</v>
+      </c>
+      <c r="B255" t="s">
+        <v>129</v>
+      </c>
+      <c r="C255" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>267</v>
+      </c>
+      <c r="B256" t="s">
+        <v>187</v>
+      </c>
+      <c r="C256" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>268</v>
+      </c>
+      <c r="B257" t="s">
+        <v>144</v>
+      </c>
+      <c r="C257" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>269</v>
+      </c>
+      <c r="B258" t="s">
+        <v>54</v>
+      </c>
+      <c r="C258" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>270</v>
+      </c>
+      <c r="B259" t="s">
+        <v>53</v>
+      </c>
+      <c r="C259" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>271</v>
+      </c>
+      <c r="B260" t="s">
+        <v>51</v>
+      </c>
+      <c r="C260" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>272</v>
+      </c>
+      <c r="B261" t="s">
+        <v>129</v>
+      </c>
+      <c r="C261" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>273</v>
+      </c>
+      <c r="B262" t="s">
+        <v>187</v>
+      </c>
+      <c r="C262" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>274</v>
+      </c>
+      <c r="B263" t="s">
+        <v>147</v>
+      </c>
+      <c r="C263" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>275</v>
+      </c>
+      <c r="B264" t="s">
+        <v>146</v>
+      </c>
+      <c r="C264" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>276</v>
+      </c>
+      <c r="B265" t="s">
+        <v>178</v>
+      </c>
+      <c r="C265" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>277</v>
+      </c>
+      <c r="B266" t="s">
+        <v>170</v>
+      </c>
+      <c r="C266" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>278</v>
+      </c>
+      <c r="B267" t="s">
+        <v>190</v>
+      </c>
+      <c r="C267" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>279</v>
+      </c>
+      <c r="B268" t="s">
+        <v>192</v>
+      </c>
+      <c r="C268" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>280</v>
+      </c>
+      <c r="B269" t="s">
+        <v>38</v>
+      </c>
+      <c r="C269" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>281</v>
+      </c>
+      <c r="B270" t="s">
+        <v>146</v>
+      </c>
+      <c r="C270" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>282</v>
+      </c>
+      <c r="B271" t="s">
+        <v>194</v>
+      </c>
+      <c r="C271" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>283</v>
+      </c>
+      <c r="B272" t="s">
+        <v>58</v>
+      </c>
+      <c r="C272" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>284</v>
+      </c>
+      <c r="B273" t="s">
+        <v>195</v>
+      </c>
+      <c r="C273" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>285</v>
+      </c>
+      <c r="B274" t="s">
+        <v>192</v>
+      </c>
+      <c r="C274" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>286</v>
+      </c>
+      <c r="B275" t="s">
+        <v>196</v>
+      </c>
+      <c r="C275" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>287</v>
+      </c>
+      <c r="B276" t="s">
+        <v>197</v>
+      </c>
+      <c r="C276" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>288</v>
+      </c>
+      <c r="B277" t="s">
+        <v>51</v>
+      </c>
+      <c r="C277" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>289</v>
+      </c>
+      <c r="B278" t="s">
+        <v>53</v>
+      </c>
+      <c r="C278" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>290</v>
+      </c>
+      <c r="B279" t="s">
+        <v>198</v>
+      </c>
+      <c r="C279" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>291</v>
+      </c>
+      <c r="B280" t="s">
+        <v>187</v>
+      </c>
+      <c r="C280" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>292</v>
+      </c>
+      <c r="B281" t="s">
+        <v>199</v>
+      </c>
+      <c r="C281" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>293</v>
+      </c>
+      <c r="B282" t="s">
+        <v>200</v>
+      </c>
+      <c r="C282" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>294</v>
+      </c>
+      <c r="B283" t="s">
+        <v>201</v>
+      </c>
+      <c r="C283" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>295</v>
+      </c>
+      <c r="B284" t="s">
+        <v>202</v>
+      </c>
+      <c r="C284" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>296</v>
+      </c>
+      <c r="B285" t="s">
+        <v>203</v>
+      </c>
+      <c r="C285" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>297</v>
+      </c>
+      <c r="B286" t="s">
+        <v>204</v>
+      </c>
+      <c r="C286" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>298</v>
+      </c>
+      <c r="B287" t="s">
+        <v>205</v>
+      </c>
+      <c r="C287" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>299</v>
+      </c>
+      <c r="B288" t="s">
+        <v>206</v>
+      </c>
+      <c r="C288" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>300</v>
+      </c>
+      <c r="B289" t="s">
+        <v>176</v>
+      </c>
+      <c r="C289" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>301</v>
+      </c>
+      <c r="B290" t="s">
+        <v>96</v>
+      </c>
+      <c r="C290" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>302</v>
+      </c>
+      <c r="B291" t="s">
+        <v>207</v>
+      </c>
+      <c r="C291" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>303</v>
+      </c>
+      <c r="B292" t="s">
+        <v>208</v>
+      </c>
+      <c r="C292" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>304</v>
+      </c>
+      <c r="B293" t="s">
+        <v>209</v>
+      </c>
+      <c r="C293" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>305</v>
+      </c>
+      <c r="B294" t="s">
+        <v>121</v>
+      </c>
+      <c r="C294" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>306</v>
+      </c>
+      <c r="B295" t="s">
+        <v>147</v>
+      </c>
+      <c r="C295" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>307</v>
+      </c>
+      <c r="B296" t="s">
+        <v>210</v>
+      </c>
+      <c r="C296" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>308</v>
+      </c>
+      <c r="B297" t="s">
+        <v>210</v>
+      </c>
+      <c r="C297" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>309</v>
+      </c>
+      <c r="B298" t="s">
+        <v>211</v>
+      </c>
+      <c r="C298" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>310</v>
+      </c>
+      <c r="B299" t="s">
+        <v>212</v>
+      </c>
+      <c r="C299" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>311</v>
+      </c>
+      <c r="B300" t="s">
+        <v>214</v>
+      </c>
+      <c r="C300" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>312</v>
+      </c>
+      <c r="B301" t="s">
+        <v>215</v>
+      </c>
+      <c r="C301" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>313</v>
+      </c>
+      <c r="B302" t="s">
+        <v>216</v>
+      </c>
+      <c r="C302" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>314</v>
+      </c>
+      <c r="B303" t="s">
+        <v>217</v>
+      </c>
+      <c r="C303" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>315</v>
+      </c>
+      <c r="B304" t="s">
+        <v>218</v>
+      </c>
+      <c r="C304" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>316</v>
+      </c>
+      <c r="B305" t="s">
+        <v>220</v>
+      </c>
+      <c r="C305" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>317</v>
+      </c>
+      <c r="B306" t="s">
+        <v>221</v>
+      </c>
+      <c r="C306" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>318</v>
+      </c>
+      <c r="B307" t="s">
+        <v>40</v>
+      </c>
+      <c r="C307" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>319</v>
+      </c>
+      <c r="B308" t="s">
+        <v>42</v>
+      </c>
+      <c r="C308" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>320</v>
+      </c>
+      <c r="B309" t="s">
+        <v>121</v>
+      </c>
+      <c r="C309" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>321</v>
+      </c>
+      <c r="B310" t="s">
+        <v>46</v>
+      </c>
+      <c r="C310" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>322</v>
+      </c>
+      <c r="B311" t="s">
+        <v>118</v>
+      </c>
+      <c r="C311" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>323</v>
+      </c>
+      <c r="B312" t="s">
+        <v>45</v>
+      </c>
+      <c r="C312" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>324</v>
+      </c>
+      <c r="B313" t="s">
+        <v>47</v>
+      </c>
+      <c r="C313" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>325</v>
+      </c>
+      <c r="B314" t="s">
+        <v>222</v>
+      </c>
+      <c r="C314" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>326</v>
+      </c>
+      <c r="B315" t="s">
+        <v>44</v>
+      </c>
+      <c r="C315" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>327</v>
+      </c>
+      <c r="B316" t="s">
+        <v>142</v>
+      </c>
+      <c r="C316" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>328</v>
+      </c>
+      <c r="B317" t="s">
+        <v>223</v>
+      </c>
+      <c r="C317" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>329</v>
+      </c>
+      <c r="B318" t="s">
+        <v>119</v>
+      </c>
+      <c r="C318" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>330</v>
+      </c>
+      <c r="B319" t="s">
+        <v>143</v>
+      </c>
+      <c r="C319" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>331</v>
+      </c>
+      <c r="B320" t="s">
+        <v>43</v>
+      </c>
+      <c r="C320" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>332</v>
+      </c>
+      <c r="B321" t="s">
+        <v>48</v>
+      </c>
+      <c r="C321" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>333</v>
+      </c>
+      <c r="B322" t="s">
+        <v>42</v>
+      </c>
+      <c r="C322" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>334</v>
+      </c>
+      <c r="B323" t="s">
+        <v>40</v>
+      </c>
+      <c r="C323" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>335</v>
+      </c>
+      <c r="B324" t="s">
+        <v>121</v>
+      </c>
+      <c r="C324" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>336</v>
+      </c>
+      <c r="B325" t="s">
+        <v>46</v>
+      </c>
+      <c r="C325" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>337</v>
+      </c>
+      <c r="B326" t="s">
+        <v>118</v>
+      </c>
+      <c r="C326" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>338</v>
+      </c>
+      <c r="B327" t="s">
+        <v>47</v>
+      </c>
+      <c r="C327" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>339</v>
+      </c>
+      <c r="B328" t="s">
+        <v>222</v>
+      </c>
+      <c r="C328" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>340</v>
+      </c>
+      <c r="B329" t="s">
+        <v>44</v>
+      </c>
+      <c r="C329" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>341</v>
+      </c>
+      <c r="B330" t="s">
+        <v>120</v>
+      </c>
+      <c r="C330" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>342</v>
+      </c>
+      <c r="B331" t="s">
+        <v>119</v>
+      </c>
+      <c r="C331" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>343</v>
+      </c>
+      <c r="B332" t="s">
+        <v>48</v>
+      </c>
+      <c r="C332" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>344</v>
+      </c>
+      <c r="B333" t="s">
+        <v>224</v>
+      </c>
+      <c r="C333" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>345</v>
+      </c>
+      <c r="B334" t="s">
+        <v>135</v>
+      </c>
+      <c r="C334" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>346</v>
+      </c>
+      <c r="B335" t="s">
+        <v>135</v>
+      </c>
+      <c r="C335" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>347</v>
+      </c>
+      <c r="B336" t="s">
+        <v>226</v>
+      </c>
+      <c r="C336" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>348</v>
+      </c>
+      <c r="B337" t="s">
+        <v>227</v>
+      </c>
+      <c r="C337" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>349</v>
+      </c>
+      <c r="B338" t="s">
+        <v>228</v>
+      </c>
+      <c r="C338" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>350</v>
+      </c>
+      <c r="B339" t="s">
+        <v>229</v>
+      </c>
+      <c r="C339" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>351</v>
+      </c>
+      <c r="B340" t="s">
+        <v>230</v>
+      </c>
+      <c r="C340" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>352</v>
+      </c>
+      <c r="B341" t="s">
+        <v>231</v>
+      </c>
+      <c r="C341" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>353</v>
+      </c>
+      <c r="B342" t="s">
+        <v>143</v>
+      </c>
+      <c r="C342" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>354</v>
+      </c>
+      <c r="B343" t="s">
+        <v>232</v>
+      </c>
+      <c r="C343" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>355</v>
+      </c>
+      <c r="B344" t="s">
+        <v>233</v>
+      </c>
+      <c r="C344" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>356</v>
+      </c>
+      <c r="B345" t="s">
+        <v>234</v>
+      </c>
+      <c r="C345" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>357</v>
+      </c>
+      <c r="B346" t="s">
+        <v>235</v>
+      </c>
+      <c r="C346" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>358</v>
+      </c>
+      <c r="B347" t="s">
+        <v>236</v>
+      </c>
+      <c r="C347" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>359</v>
+      </c>
+      <c r="B348" t="s">
+        <v>237</v>
+      </c>
+      <c r="C348" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>360</v>
+      </c>
+      <c r="B349" t="s">
+        <v>238</v>
+      </c>
+      <c r="C349" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>361</v>
+      </c>
+      <c r="B350" t="s">
+        <v>240</v>
+      </c>
+      <c r="C350" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>362</v>
+      </c>
+      <c r="B351" t="s">
+        <v>241</v>
+      </c>
+      <c r="C351" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>363</v>
+      </c>
+      <c r="B352" t="s">
+        <v>242</v>
+      </c>
+      <c r="C352" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>364</v>
+      </c>
+      <c r="B353" t="s">
+        <v>243</v>
+      </c>
+      <c r="C353" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>365</v>
+      </c>
+      <c r="B354" t="s">
+        <v>244</v>
+      </c>
+      <c r="C354" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>366</v>
+      </c>
+      <c r="B355" t="s">
+        <v>194</v>
+      </c>
+      <c r="C355" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>367</v>
+      </c>
+      <c r="B356" t="s">
+        <v>238</v>
+      </c>
+      <c r="C356" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>368</v>
+      </c>
+      <c r="B357" t="s">
+        <v>240</v>
+      </c>
+      <c r="C357" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>369</v>
+      </c>
+      <c r="B358" t="s">
+        <v>73</v>
+      </c>
+      <c r="C358" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>370</v>
+      </c>
+      <c r="B359" t="s">
+        <v>241</v>
+      </c>
+      <c r="C359" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>371</v>
+      </c>
+      <c r="B360" t="s">
+        <v>246</v>
+      </c>
+      <c r="C360" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>372</v>
+      </c>
+      <c r="B361" t="s">
+        <v>242</v>
+      </c>
+      <c r="C361" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>373</v>
+      </c>
+      <c r="B362" t="s">
+        <v>243</v>
+      </c>
+      <c r="C362" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>374</v>
+      </c>
+      <c r="B363" t="s">
+        <v>247</v>
+      </c>
+      <c r="C363" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>375</v>
+      </c>
+      <c r="B364" t="s">
+        <v>248</v>
+      </c>
+      <c r="C364" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>376</v>
+      </c>
+      <c r="B365" t="s">
+        <v>244</v>
+      </c>
+      <c r="C365" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>377</v>
+      </c>
+      <c r="B366" t="s">
+        <v>84</v>
+      </c>
+      <c r="C366" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>378</v>
+      </c>
+      <c r="B367" t="s">
+        <v>249</v>
+      </c>
+      <c r="C367" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>379</v>
+      </c>
+      <c r="B368" t="s">
+        <v>250</v>
+      </c>
+      <c r="C368" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>380</v>
+      </c>
+      <c r="B369" t="s">
+        <v>74</v>
+      </c>
+      <c r="C369" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>381</v>
+      </c>
+      <c r="B370" t="s">
+        <v>194</v>
+      </c>
+      <c r="C370" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>382</v>
+      </c>
+      <c r="B371" t="s">
+        <v>251</v>
+      </c>
+      <c r="C371" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>384</v>
+      </c>
+      <c r="B372" t="s">
+        <v>177</v>
+      </c>
+      <c r="C372" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>385</v>
+      </c>
+      <c r="B373" t="s">
+        <v>83</v>
+      </c>
+      <c r="C373" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>386</v>
+      </c>
+      <c r="B374" t="s">
+        <v>83</v>
+      </c>
+      <c r="C374" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>387</v>
+      </c>
+      <c r="B375" t="s">
+        <v>234</v>
+      </c>
+      <c r="C375" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>388</v>
+      </c>
+      <c r="B376" t="s">
+        <v>235</v>
+      </c>
+      <c r="C376" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>389</v>
+      </c>
+      <c r="B377" t="s">
+        <v>236</v>
+      </c>
+      <c r="C377" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>390</v>
+      </c>
+      <c r="B378" t="s">
+        <v>237</v>
+      </c>
+      <c r="C378" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>391</v>
+      </c>
+      <c r="B379" t="s">
+        <v>53</v>
+      </c>
+      <c r="C379" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>392</v>
+      </c>
+      <c r="B380" t="s">
+        <v>253</v>
+      </c>
+      <c r="C380" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>393</v>
+      </c>
+      <c r="B381" t="s">
+        <v>253</v>
+      </c>
+      <c r="C381" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>394</v>
+      </c>
+      <c r="B382" t="s">
+        <v>255</v>
+      </c>
+      <c r="C382" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>395</v>
+      </c>
+      <c r="B383" t="s">
+        <v>256</v>
+      </c>
+      <c r="C383" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>401</v>
+      </c>
+      <c r="B384" t="s">
+        <v>192</v>
+      </c>
+      <c r="C384" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>402</v>
+      </c>
+      <c r="B385" t="s">
+        <v>196</v>
+      </c>
+      <c r="C385" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>403</v>
+      </c>
+      <c r="B386" t="s">
+        <v>122</v>
+      </c>
+      <c r="C386" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>404</v>
+      </c>
+      <c r="B387" t="s">
+        <v>257</v>
+      </c>
+      <c r="C387" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>409</v>
+      </c>
+      <c r="B388" t="s">
+        <v>227</v>
+      </c>
+      <c r="C388" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>410</v>
+      </c>
+      <c r="B389" t="s">
+        <v>143</v>
+      </c>
+      <c r="C389" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>412</v>
+      </c>
+      <c r="B390" t="s">
+        <v>23</v>
+      </c>
+      <c r="C390" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>413</v>
+      </c>
+      <c r="B391" t="s">
+        <v>24</v>
+      </c>
+      <c r="C391" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>414</v>
+      </c>
+      <c r="B392" t="s">
+        <v>21</v>
+      </c>
+      <c r="C392" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>415</v>
+      </c>
+      <c r="B393" t="s">
+        <v>258</v>
+      </c>
+      <c r="C393" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>416</v>
+      </c>
+      <c r="B394" t="s">
+        <v>259</v>
+      </c>
+      <c r="C394" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>417</v>
+      </c>
+      <c r="B395" t="s">
+        <v>260</v>
+      </c>
+      <c r="C395" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>418</v>
+      </c>
+      <c r="B396" t="s">
+        <v>155</v>
+      </c>
+      <c r="C396" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>419</v>
+      </c>
+      <c r="B397" t="s">
+        <v>25</v>
+      </c>
+      <c r="C397" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>420</v>
+      </c>
+      <c r="B398" t="s">
+        <v>261</v>
+      </c>
+      <c r="C398" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>421</v>
+      </c>
+      <c r="B399" t="s">
+        <v>262</v>
+      </c>
+      <c r="C399" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>428</v>
+      </c>
+      <c r="B400" t="s">
+        <v>263</v>
+      </c>
+      <c r="C400" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>429</v>
+      </c>
+      <c r="B401" t="s">
+        <v>64</v>
+      </c>
+      <c r="C401" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>430</v>
+      </c>
+      <c r="B402" t="s">
+        <v>64</v>
+      </c>
+      <c r="C402" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>431</v>
+      </c>
+      <c r="B403" t="s">
+        <v>263</v>
+      </c>
+      <c r="C403" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>432</v>
+      </c>
+      <c r="B404" t="s">
+        <v>264</v>
+      </c>
+      <c r="C404" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>433</v>
+      </c>
+      <c r="B405" t="s">
+        <v>265</v>
+      </c>
+      <c r="C405" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>434</v>
+      </c>
+      <c r="B406" t="s">
+        <v>153</v>
+      </c>
+      <c r="C406" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>435</v>
+      </c>
+      <c r="B407" t="s">
+        <v>155</v>
+      </c>
+      <c r="C407" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>436</v>
+      </c>
+      <c r="B408" t="s">
+        <v>267</v>
+      </c>
+      <c r="C408" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>437</v>
+      </c>
+      <c r="B409" t="s">
+        <v>6</v>
+      </c>
+      <c r="C409" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>438</v>
+      </c>
+      <c r="B410" t="s">
+        <v>269</v>
+      </c>
+      <c r="C410" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>439</v>
+      </c>
+      <c r="B411" t="s">
+        <v>270</v>
+      </c>
+      <c r="C411" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>441</v>
+      </c>
+      <c r="B412" t="s">
+        <v>271</v>
+      </c>
+      <c r="C412" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>442</v>
+      </c>
+      <c r="B413" t="s">
+        <v>272</v>
+      </c>
+      <c r="C413" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>443</v>
+      </c>
+      <c r="B414" t="s">
+        <v>273</v>
+      </c>
+      <c r="C414" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>444</v>
+      </c>
+      <c r="B415" t="s">
+        <v>274</v>
+      </c>
+      <c r="C415" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>445</v>
+      </c>
+      <c r="B416" t="s">
+        <v>275</v>
+      </c>
+      <c r="C416" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
